--- a/docs/bits per error.xlsx
+++ b/docs/bits per error.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\ComfyUI\custom_nodes\flux-poke\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A858AB6F-FD45-4A78-9247-0BE83A44ABAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592146B4-42A2-4480-AC22-58D7C73DE631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31440" yWindow="195" windowWidth="20340" windowHeight="13875" activeTab="1" xr2:uid="{84851493-308B-424B-BC0C-B4386839AF2F}"/>
+    <workbookView xWindow="29910" yWindow="1140" windowWidth="23250" windowHeight="13875" activeTab="1" xr2:uid="{84851493-308B-424B-BC0C-B4386839AF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,17 +124,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2460,11 +2450,11 @@
         <v>49.688999999999993</v>
       </c>
       <c r="E2">
-        <f>169869312*2</f>
+        <f t="shared" ref="E2:E33" si="0">169869312*2</f>
         <v>339738624</v>
       </c>
       <c r="F2">
-        <f>IF(B2="Q4_1",12,IF(B2="Q5_1",11,8))</f>
+        <f t="shared" ref="F2:F33" si="1">IF(B2="Q4_1",12,IF(B2="Q5_1",11,8))</f>
         <v>12</v>
       </c>
       <c r="G2">
@@ -2472,7 +2462,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="3">
-        <f>F2*E2/C2</f>
+        <f t="shared" ref="H2:H33" si="2">F2*E2/C2</f>
         <v>36731809.063879631</v>
       </c>
       <c r="I2" s="3">
@@ -2495,11 +2485,11 @@
         <v>17.966999999999999</v>
       </c>
       <c r="E3">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F3">
-        <f>IF(B3="Q4_1",12,IF(B3="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G3">
@@ -2507,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="3">
-        <f>F3*E3/C3</f>
+        <f t="shared" si="2"/>
         <v>47145441.590553567</v>
       </c>
       <c r="I3" s="3">
@@ -2526,15 +2516,15 @@
         <v>61.301000000000002</v>
       </c>
       <c r="E4">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F4">
-        <f>IF(B4="Q4_1",12,IF(B4="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H4" s="3">
-        <f>F4*E4/C4</f>
+        <f t="shared" si="2"/>
         <v>44337106.931371428</v>
       </c>
       <c r="I4" s="3"/>
@@ -2554,11 +2544,11 @@
         <v>38.901000000000003</v>
       </c>
       <c r="E5">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F5">
-        <f>IF(B5="Q4_1",12,IF(B5="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G5">
@@ -2566,7 +2556,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="3">
-        <f>F5*E5/C5</f>
+        <f t="shared" si="2"/>
         <v>41621883.491577335</v>
       </c>
       <c r="I5" s="3">
@@ -2589,11 +2579,11 @@
         <v>20.006000000000007</v>
       </c>
       <c r="E6">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F6">
-        <f>IF(B6="Q4_1",12,IF(B6="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G6">
@@ -2601,7 +2591,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="3">
-        <f>F6*E6/C6</f>
+        <f t="shared" si="2"/>
         <v>47272466.814243242</v>
       </c>
       <c r="I6" s="3">
@@ -2620,15 +2610,15 @@
         <v>59.048999999999999</v>
       </c>
       <c r="E7">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F7">
-        <f>IF(B7="Q4_1",12,IF(B7="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H7" s="3">
-        <f>F7*E7/C7</f>
+        <f t="shared" si="2"/>
         <v>46028027.434842251</v>
       </c>
       <c r="I7" s="3"/>
@@ -2648,11 +2638,11 @@
         <v>32.053000000000004</v>
       </c>
       <c r="E8">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F8">
-        <f>IF(B8="Q4_1",12,IF(B8="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G8">
@@ -2660,7 +2650,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="3">
-        <f>F8*E8/C8</f>
+        <f t="shared" si="2"/>
         <v>48473497.271268055</v>
       </c>
       <c r="I8" s="3">
@@ -2683,11 +2673,11 @@
         <v>15.518999999999998</v>
       </c>
       <c r="E9">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F9">
-        <f>IF(B9="Q4_1",12,IF(B9="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G9">
@@ -2695,7 +2685,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="3">
-        <f>F9*E9/C9</f>
+        <f t="shared" si="2"/>
         <v>55306638.409968778</v>
       </c>
       <c r="I9" s="3">
@@ -2714,15 +2704,15 @@
         <v>52.052</v>
       </c>
       <c r="E10">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F10">
-        <f>IF(B10="Q4_1",12,IF(B10="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H10" s="3">
-        <f>F10*E10/C10</f>
+        <f t="shared" si="2"/>
         <v>52215265.35003458</v>
       </c>
       <c r="I10" s="3"/>
@@ -2742,11 +2732,11 @@
         <v>23.724999999999994</v>
       </c>
       <c r="E11">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F11">
-        <f>IF(B11="Q4_1",12,IF(B11="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G11">
@@ -2754,7 +2744,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="3">
-        <f>F11*E11/C11</f>
+        <f t="shared" si="2"/>
         <v>58325896.134367228</v>
       </c>
       <c r="I11" s="3">
@@ -2777,11 +2767,11 @@
         <v>11.653999999999996</v>
       </c>
       <c r="E12">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F12">
-        <f>IF(B12="Q4_1",12,IF(B12="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G12">
@@ -2789,7 +2779,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="3">
-        <f>F12*E12/C12</f>
+        <f t="shared" si="2"/>
         <v>64625950.922579423</v>
       </c>
       <c r="I12" s="3">
@@ -2808,15 +2798,15 @@
         <v>46.173000000000002</v>
       </c>
       <c r="E13">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F13">
-        <f>IF(B13="Q4_1",12,IF(B13="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H13" s="3">
-        <f>F13*E13/C13</f>
+        <f t="shared" si="2"/>
         <v>58863599.766097069</v>
       </c>
       <c r="I13" s="3"/>
@@ -2836,11 +2826,11 @@
         <v>31.468999999999994</v>
       </c>
       <c r="E14">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F14">
-        <f>IF(B14="Q4_1",12,IF(B14="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G14">
@@ -2848,7 +2838,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="3">
-        <f>F14*E14/C14</f>
+        <f t="shared" si="2"/>
         <v>55574142.068457864</v>
       </c>
       <c r="I14" s="3">
@@ -2871,11 +2861,11 @@
         <v>15.564999999999998</v>
       </c>
       <c r="E15">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F15">
-        <f>IF(B15="Q4_1",12,IF(B15="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G15">
@@ -2883,7 +2873,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="3">
-        <f>F15*E15/C15</f>
+        <f t="shared" si="2"/>
         <v>65044380.193194672</v>
       </c>
       <c r="I15" s="3">
@@ -2902,15 +2892,15 @@
         <v>41.89</v>
       </c>
       <c r="E16">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F16">
-        <f>IF(B16="Q4_1",12,IF(B16="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H16" s="3">
-        <f>F16*E16/C16</f>
+        <f t="shared" si="2"/>
         <v>64882048.030556217</v>
       </c>
       <c r="I16" s="3"/>
@@ -2930,11 +2920,11 @@
         <v>31.187000000000005</v>
       </c>
       <c r="E17">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F17">
-        <f>IF(B17="Q4_1",12,IF(B17="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G17">
@@ -2942,7 +2932,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="3">
-        <f>F17*E17/C17</f>
+        <f t="shared" si="2"/>
         <v>56972854.020514823</v>
       </c>
       <c r="I17" s="3">
@@ -2965,11 +2955,11 @@
         <v>17.222999999999999</v>
       </c>
       <c r="E18">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F18">
-        <f>IF(B18="Q4_1",12,IF(B18="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G18">
@@ -2977,7 +2967,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="3">
-        <f>F18*E18/C18</f>
+        <f t="shared" si="2"/>
         <v>64887399.104073338</v>
       </c>
       <c r="I18" s="3">
@@ -2996,15 +2986,15 @@
         <v>40.371000000000002</v>
       </c>
       <c r="E19">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F19">
-        <f>IF(B19="Q4_1",12,IF(B19="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H19" s="3">
-        <f>F19*E19/C19</f>
+        <f t="shared" si="2"/>
         <v>67323301.181541204</v>
       </c>
       <c r="I19" s="3"/>
@@ -3024,11 +3014,11 @@
         <v>30.659999999999997</v>
       </c>
       <c r="E20">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F20">
-        <f>IF(B20="Q4_1",12,IF(B20="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G20">
@@ -3036,7 +3026,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="3">
-        <f>F20*E20/C20</f>
+        <f t="shared" si="2"/>
         <v>58249228.289755687</v>
       </c>
       <c r="I20" s="3">
@@ -3059,11 +3049,11 @@
         <v>15.652000000000001</v>
       </c>
       <c r="E21">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F21">
-        <f>IF(B21="Q4_1",12,IF(B21="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G21">
@@ -3071,7 +3061,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <f>F21*E21/C21</f>
+        <f t="shared" si="2"/>
         <v>67969969.517296568</v>
       </c>
       <c r="I21" s="3">
@@ -3090,15 +3080,15 @@
         <v>39.33</v>
       </c>
       <c r="E22">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F22">
-        <f>IF(B22="Q4_1",12,IF(B22="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H22" s="3">
-        <f>F22*E22/C22</f>
+        <f t="shared" si="2"/>
         <v>69105237.52860412</v>
       </c>
       <c r="I22" s="3"/>
@@ -3118,11 +3108,11 @@
         <v>34.489000000000004</v>
       </c>
       <c r="E23">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F23">
-        <f>IF(B23="Q4_1",12,IF(B23="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G23">
@@ -3130,7 +3120,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="3">
-        <f>F23*E23/C23</f>
+        <f t="shared" si="2"/>
         <v>55742069.621810816</v>
       </c>
       <c r="I23" s="3">
@@ -3153,11 +3143,11 @@
         <v>19.851999999999997</v>
       </c>
       <c r="E24">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F24">
-        <f>IF(B24="Q4_1",12,IF(B24="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G24">
@@ -3165,7 +3155,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="3">
-        <f>F24*E24/C24</f>
+        <f t="shared" si="2"/>
         <v>63881384.318216786</v>
       </c>
       <c r="I24" s="3">
@@ -3184,15 +3174,15 @@
         <v>38.649000000000001</v>
       </c>
       <c r="E25">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F25">
-        <f>IF(B25="Q4_1",12,IF(B25="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H25" s="3">
-        <f>F25*E25/C25</f>
+        <f t="shared" si="2"/>
         <v>70322880.074516803</v>
       </c>
       <c r="I25" s="3"/>
@@ -3212,11 +3202,11 @@
         <v>33.822999999999993</v>
       </c>
       <c r="E26">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F26">
-        <f>IF(B26="Q4_1",12,IF(B26="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G26">
@@ -3224,7 +3214,7 @@
         <v>4</v>
       </c>
       <c r="H26" s="3">
-        <f>F26*E26/C26</f>
+        <f t="shared" si="2"/>
         <v>55456967.217128716</v>
       </c>
       <c r="I26" s="3">
@@ -3247,11 +3237,11 @@
         <v>16.548999999999999</v>
       </c>
       <c r="E27">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F27">
-        <f>IF(B27="Q4_1",12,IF(B27="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G27">
@@ -3259,7 +3249,7 @@
         <v>3</v>
       </c>
       <c r="H27" s="3">
-        <f>F27*E27/C27</f>
+        <f t="shared" si="2"/>
         <v>66449588.620199144</v>
       </c>
       <c r="I27" s="3">
@@ -3278,15 +3268,15 @@
         <v>39.691000000000003</v>
       </c>
       <c r="E28">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F28">
-        <f>IF(B28="Q4_1",12,IF(B28="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H28" s="3">
-        <f>F28*E28/C28</f>
+        <f t="shared" si="2"/>
         <v>68476707.364389911</v>
       </c>
       <c r="I28" s="3"/>
@@ -3306,11 +3296,11 @@
         <v>34.64</v>
       </c>
       <c r="E29">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F29">
-        <f>IF(B29="Q4_1",12,IF(B29="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G29">
@@ -3318,7 +3308,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="3">
-        <f>F29*E29/C29</f>
+        <f t="shared" si="2"/>
         <v>56818021.378897049</v>
       </c>
       <c r="I29" s="3">
@@ -3341,11 +3331,11 @@
         <v>16.877000000000002</v>
       </c>
       <c r="E30">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F30">
-        <f>IF(B30="Q4_1",12,IF(B30="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G30">
@@ -3353,7 +3343,7 @@
         <v>3</v>
       </c>
       <c r="H30" s="3">
-        <f>F30*E30/C30</f>
+        <f t="shared" si="2"/>
         <v>69218834.302648634</v>
       </c>
       <c r="I30" s="3">
@@ -3372,15 +3362,15 @@
         <v>37.113</v>
       </c>
       <c r="E31">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F31">
-        <f>IF(B31="Q4_1",12,IF(B31="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H31" s="3">
-        <f>F31*E31/C31</f>
+        <f t="shared" si="2"/>
         <v>73233341.201196343</v>
       </c>
       <c r="I31" s="3"/>
@@ -3400,11 +3390,11 @@
         <v>30.293999999999997</v>
       </c>
       <c r="E32">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F32">
-        <f>IF(B32="Q4_1",12,IF(B32="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G32">
@@ -3412,7 +3402,7 @@
         <v>4</v>
       </c>
       <c r="H32" s="3">
-        <f>F32*E32/C32</f>
+        <f t="shared" si="2"/>
         <v>56159785.767418802</v>
       </c>
       <c r="I32" s="3">
@@ -3435,11 +3425,11 @@
         <v>19.216000000000001</v>
       </c>
       <c r="E33">
-        <f>169869312*2</f>
+        <f t="shared" si="0"/>
         <v>339738624</v>
       </c>
       <c r="F33">
-        <f>IF(B33="Q4_1",12,IF(B33="Q5_1",11,8))</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G33">
@@ -3447,7 +3437,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="3">
-        <f>F33*E33/C33</f>
+        <f t="shared" si="2"/>
         <v>60750452.955328695</v>
       </c>
       <c r="I33" s="3">
@@ -3466,15 +3456,15 @@
         <v>42.3</v>
       </c>
       <c r="E34">
-        <f>169869312*2</f>
+        <f t="shared" ref="E34:E55" si="3">169869312*2</f>
         <v>339738624</v>
       </c>
       <c r="F34">
-        <f>IF(B34="Q4_1",12,IF(B34="Q5_1",11,8))</f>
+        <f t="shared" ref="F34:F65" si="4">IF(B34="Q4_1",12,IF(B34="Q5_1",11,8))</f>
         <v>8</v>
       </c>
       <c r="H34" s="3">
-        <f>F34*E34/C34</f>
+        <f t="shared" ref="H34:H65" si="5">F34*E34/C34</f>
         <v>64253167.659574471</v>
       </c>
       <c r="I34" s="3"/>
@@ -3494,11 +3484,11 @@
         <v>32.543000000000006</v>
       </c>
       <c r="E35">
-        <f>169869312*2</f>
+        <f t="shared" si="3"/>
         <v>339738624</v>
       </c>
       <c r="F35">
-        <f>IF(B35="Q4_1",12,IF(B35="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G35">
@@ -3506,7 +3496,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="3">
-        <f>F35*E35/C35</f>
+        <f t="shared" si="5"/>
         <v>63048830.657882519</v>
       </c>
       <c r="I35" s="3">
@@ -3529,11 +3519,11 @@
         <v>15.994999999999997</v>
       </c>
       <c r="E36">
-        <f>169869312*2</f>
+        <f t="shared" si="3"/>
         <v>339738624</v>
       </c>
       <c r="F36">
-        <f>IF(B36="Q4_1",12,IF(B36="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G36">
@@ -3541,7 +3531,7 @@
         <v>3</v>
       </c>
       <c r="H36" s="3">
-        <f>F36*E36/C36</f>
+        <f t="shared" si="5"/>
         <v>77672296.296296299</v>
       </c>
       <c r="I36" s="3">
@@ -3560,15 +3550,15 @@
         <v>32.119</v>
       </c>
       <c r="E37">
-        <f>169869312*2</f>
+        <f t="shared" si="3"/>
         <v>339738624</v>
       </c>
       <c r="F37">
-        <f>IF(B37="Q4_1",12,IF(B37="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="H37" s="3">
-        <f>F37*E37/C37</f>
+        <f t="shared" si="5"/>
         <v>84619975.466234937</v>
       </c>
       <c r="I37" s="3"/>
@@ -3588,11 +3578,11 @@
         <v>35.002999999999993</v>
       </c>
       <c r="E38">
-        <f>169869312*2</f>
+        <f t="shared" si="3"/>
         <v>339738624</v>
       </c>
       <c r="F38">
-        <f>IF(B38="Q4_1",12,IF(B38="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G38">
@@ -3600,7 +3590,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="3">
-        <f>F38*E38/C38</f>
+        <f t="shared" si="5"/>
         <v>57167785.960680939</v>
       </c>
       <c r="I38" s="3">
@@ -3623,11 +3613,11 @@
         <v>19.801000000000002</v>
       </c>
       <c r="E39">
-        <f>169869312*2</f>
+        <f t="shared" si="3"/>
         <v>339738624</v>
       </c>
       <c r="F39">
-        <f>IF(B39="Q4_1",12,IF(B39="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G39">
@@ -3635,7 +3625,7 @@
         <v>3</v>
       </c>
       <c r="H39" s="3">
-        <f>F39*E39/C39</f>
+        <f t="shared" si="5"/>
         <v>66601170.230966635</v>
       </c>
       <c r="I39" s="3">
@@ -3654,15 +3644,15 @@
         <v>36.311</v>
       </c>
       <c r="E40">
-        <f>169869312*2</f>
+        <f t="shared" si="3"/>
         <v>339738624</v>
       </c>
       <c r="F40">
-        <f>IF(B40="Q4_1",12,IF(B40="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="H40" s="3">
-        <f>F40*E40/C40</f>
+        <f t="shared" si="5"/>
         <v>74850843.876511246</v>
       </c>
       <c r="I40" s="3"/>
@@ -3682,11 +3672,11 @@
         <v>32.228999999999999</v>
       </c>
       <c r="E41">
-        <f>169869312*2</f>
+        <f t="shared" si="3"/>
         <v>339738624</v>
       </c>
       <c r="F41">
-        <f>IF(B41="Q4_1",12,IF(B41="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G41">
@@ -3694,7 +3684,7 @@
         <v>4</v>
       </c>
       <c r="H41" s="3">
-        <f>F41*E41/C41</f>
+        <f t="shared" si="5"/>
         <v>67283857.406918406</v>
       </c>
       <c r="I41" s="3">
@@ -3717,11 +3707,11 @@
         <v>15.666000000000004</v>
       </c>
       <c r="E42">
-        <f>169869312*2</f>
+        <f t="shared" si="3"/>
         <v>339738624</v>
       </c>
       <c r="F42">
-        <f>IF(B42="Q4_1",12,IF(B42="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G42">
@@ -3729,7 +3719,7 @@
         <v>3</v>
       </c>
       <c r="H42" s="3">
-        <f>F42*E42/C42</f>
+        <f t="shared" si="5"/>
         <v>84878713.211746797</v>
       </c>
       <c r="I42" s="3">
@@ -3748,15 +3738,15 @@
         <v>28.363</v>
       </c>
       <c r="E43">
-        <f>169869312*2</f>
+        <f t="shared" si="3"/>
         <v>339738624</v>
       </c>
       <c r="F43">
-        <f>IF(B43="Q4_1",12,IF(B43="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="H43" s="3">
-        <f>F43*E43/C43</f>
+        <f t="shared" si="5"/>
         <v>95825864.400803864</v>
       </c>
       <c r="I43" s="3"/>
@@ -3776,11 +3766,11 @@
         <v>28.192</v>
       </c>
       <c r="E44">
-        <f>169869312*2</f>
+        <f t="shared" si="3"/>
         <v>339738624</v>
       </c>
       <c r="F44">
-        <f>IF(B44="Q4_1",12,IF(B44="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G44">
@@ -3788,7 +3778,7 @@
         <v>4</v>
       </c>
       <c r="H44" s="3">
-        <f>F44*E44/C44</f>
+        <f t="shared" si="5"/>
         <v>68201205.94877629</v>
       </c>
       <c r="I44" s="3">
@@ -3811,11 +3801,11 @@
         <v>14.383000000000003</v>
       </c>
       <c r="E45">
-        <f>169869312*2</f>
+        <f t="shared" si="3"/>
         <v>339738624</v>
       </c>
       <c r="F45">
-        <f>IF(B45="Q4_1",12,IF(B45="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G45">
@@ -3823,7 +3813,7 @@
         <v>3</v>
       </c>
       <c r="H45" s="3">
-        <f>F45*E45/C45</f>
+        <f t="shared" si="5"/>
         <v>81298400.278454572</v>
       </c>
       <c r="I45" s="3">
@@ -3842,15 +3832,15 @@
         <v>31.585000000000001</v>
       </c>
       <c r="E46">
-        <f>169869312*2</f>
+        <f t="shared" si="3"/>
         <v>339738624</v>
       </c>
       <c r="F46">
-        <f>IF(B46="Q4_1",12,IF(B46="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="H46" s="3">
-        <f>F46*E46/C46</f>
+        <f t="shared" si="5"/>
         <v>86050625.043533325</v>
       </c>
       <c r="I46" s="3"/>
@@ -3870,11 +3860,11 @@
         <v>29.151</v>
       </c>
       <c r="E47">
-        <f>169869312*2</f>
+        <f t="shared" si="3"/>
         <v>339738624</v>
       </c>
       <c r="F47">
-        <f>IF(B47="Q4_1",12,IF(B47="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G47">
@@ -3882,7 +3872,7 @@
         <v>4</v>
       </c>
       <c r="H47" s="3">
-        <f>F47*E47/C47</f>
+        <f t="shared" si="5"/>
         <v>78650785.91685155</v>
       </c>
       <c r="I47" s="3">
@@ -3905,11 +3895,11 @@
         <v>11.647000000000002</v>
       </c>
       <c r="E48">
-        <f>169869312*2</f>
+        <f t="shared" si="3"/>
         <v>339738624</v>
       </c>
       <c r="F48">
-        <f>IF(B48="Q4_1",12,IF(B48="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G48">
@@ -3917,7 +3907,7 @@
         <v>3</v>
       </c>
       <c r="H48" s="3">
-        <f>F48*E48/C48</f>
+        <f t="shared" si="5"/>
         <v>108855694.96956103</v>
       </c>
       <c r="I48" s="3">
@@ -3936,15 +3926,15 @@
         <v>22.684000000000001</v>
       </c>
       <c r="E49">
-        <f>169869312*2</f>
+        <f t="shared" si="3"/>
         <v>339738624</v>
       </c>
       <c r="F49">
-        <f>IF(B49="Q4_1",12,IF(B49="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="H49" s="3">
-        <f>F49*E49/C49</f>
+        <f t="shared" si="5"/>
         <v>119816125.55104919</v>
       </c>
       <c r="I49" s="3"/>
@@ -3964,11 +3954,11 @@
         <v>24.018000000000001</v>
       </c>
       <c r="E50">
-        <f>169869312*2</f>
+        <f t="shared" si="3"/>
         <v>339738624</v>
       </c>
       <c r="F50">
-        <f>IF(B50="Q4_1",12,IF(B50="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G50">
@@ -3976,7 +3966,7 @@
         <v>4</v>
       </c>
       <c r="H50" s="3">
-        <f>F50*E50/C50</f>
+        <f t="shared" si="5"/>
         <v>89830413.537810683</v>
       </c>
       <c r="I50" s="3">
@@ -3999,11 +3989,11 @@
         <v>11.762</v>
       </c>
       <c r="E51">
-        <f>169869312*2</f>
+        <f t="shared" si="3"/>
         <v>339738624</v>
       </c>
       <c r="F51">
-        <f>IF(B51="Q4_1",12,IF(B51="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G51">
@@ -4011,7 +4001,7 @@
         <v>3</v>
       </c>
       <c r="H51" s="3">
-        <f>F51*E51/C51</f>
+        <f t="shared" si="5"/>
         <v>112808647.18666989</v>
       </c>
       <c r="I51" s="3">
@@ -4030,15 +4020,15 @@
         <v>21.366</v>
       </c>
       <c r="E52">
-        <f>169869312*2</f>
+        <f t="shared" si="3"/>
         <v>339738624</v>
       </c>
       <c r="F52">
-        <f>IF(B52="Q4_1",12,IF(B52="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="H52" s="3">
-        <f>F52*E52/C52</f>
+        <f t="shared" si="5"/>
         <v>127207197.97809604</v>
       </c>
       <c r="I52" s="3"/>
@@ -4058,11 +4048,11 @@
         <v>24.556999999999999</v>
       </c>
       <c r="E53">
-        <f>169869312*2</f>
+        <f t="shared" si="3"/>
         <v>339738624</v>
       </c>
       <c r="F53">
-        <f>IF(B53="Q4_1",12,IF(B53="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G53">
@@ -4070,7 +4060,7 @@
         <v>4</v>
       </c>
       <c r="H53" s="3">
-        <f>F53*E53/C53</f>
+        <f t="shared" si="5"/>
         <v>86049716.915023848</v>
       </c>
       <c r="I53" s="3">
@@ -4093,11 +4083,11 @@
         <v>11.792999999999996</v>
       </c>
       <c r="E54">
-        <f>169869312*2</f>
+        <f t="shared" si="3"/>
         <v>339738624</v>
       </c>
       <c r="F54">
-        <f>IF(B54="Q4_1",12,IF(B54="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G54">
@@ -4105,7 +4095,7 @@
         <v>3</v>
       </c>
       <c r="H54" s="3">
-        <f>F54*E54/C54</f>
+        <f t="shared" si="5"/>
         <v>107965703.58814353</v>
       </c>
       <c r="I54" s="3">
@@ -4124,15 +4114,15 @@
         <v>22.821000000000002</v>
       </c>
       <c r="E55">
-        <f>169869312*2</f>
+        <f t="shared" si="3"/>
         <v>339738624</v>
       </c>
       <c r="F55">
-        <f>IF(B55="Q4_1",12,IF(B55="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="H55" s="3">
-        <f>F55*E55/C55</f>
+        <f t="shared" si="5"/>
         <v>119096840.27869067</v>
       </c>
       <c r="I55" s="3"/>
@@ -4152,11 +4142,11 @@
         <v>16.302</v>
       </c>
       <c r="E56">
-        <f>141557760*1</f>
+        <f t="shared" ref="E56:E87" si="6">141557760*1</f>
         <v>141557760</v>
       </c>
       <c r="F56">
-        <f>IF(B56="Q4_1",12,IF(B56="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G56">
@@ -4164,7 +4154,7 @@
         <v>4</v>
       </c>
       <c r="H56" s="3">
-        <f>F56*E56/C56</f>
+        <f t="shared" si="5"/>
         <v>46581652.452902623</v>
       </c>
       <c r="I56" s="3">
@@ -4187,11 +4177,11 @@
         <v>6.9510000000000005</v>
       </c>
       <c r="E57">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F57">
-        <f>IF(B57="Q4_1",12,IF(B57="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G57">
@@ -4199,7 +4189,7 @@
         <v>3</v>
       </c>
       <c r="H57" s="3">
-        <f>F57*E57/C57</f>
+        <f t="shared" si="5"/>
         <v>57424965.33412008</v>
       </c>
       <c r="I57" s="3">
@@ -4218,15 +4208,15 @@
         <v>20.164999999999999</v>
       </c>
       <c r="E58">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F58">
-        <f>IF(B58="Q4_1",12,IF(B58="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="H58" s="3">
-        <f>F58*E58/C58</f>
+        <f t="shared" si="5"/>
         <v>56159785.767418794</v>
       </c>
       <c r="I58" s="3"/>
@@ -4246,11 +4236,11 @@
         <v>9.5851000000000024</v>
       </c>
       <c r="E59">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F59">
-        <f>IF(B59="Q4_1",12,IF(B59="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G59">
@@ -4258,7 +4248,7 @@
         <v>4</v>
       </c>
       <c r="H59" s="3">
-        <f>F59*E59/C59</f>
+        <f t="shared" si="5"/>
         <v>91440658.879259288</v>
       </c>
       <c r="I59" s="3">
@@ -4281,11 +4271,11 @@
         <v>4.1280999999999999</v>
       </c>
       <c r="E60">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F60">
-        <f>IF(B60="Q4_1",12,IF(B60="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G60">
@@ -4293,7 +4283,7 @@
         <v>3</v>
       </c>
       <c r="H60" s="3">
-        <f>F60*E60/C60</f>
+        <f t="shared" si="5"/>
         <v>118684097.56097561</v>
       </c>
       <c r="I60" s="3">
@@ -4312,15 +4302,15 @@
         <v>8.9918999999999993</v>
       </c>
       <c r="E61">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F61">
-        <f>IF(B61="Q4_1",12,IF(B61="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="H61" s="3">
-        <f>F61*E61/C61</f>
+        <f t="shared" si="5"/>
         <v>125942468.22139926</v>
       </c>
       <c r="I61" s="3"/>
@@ -4340,11 +4330,11 @@
         <v>7.7395999999999994</v>
       </c>
       <c r="E62">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F62">
-        <f>IF(B62="Q4_1",12,IF(B62="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G62">
@@ -4352,7 +4342,7 @@
         <v>4</v>
       </c>
       <c r="H62" s="3">
-        <f>F62*E62/C62</f>
+        <f t="shared" si="5"/>
         <v>115134412.36274908</v>
       </c>
       <c r="I62" s="3">
@@ -4375,11 +4365,11 @@
         <v>3.3216000000000001</v>
       </c>
       <c r="E63">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F63">
-        <f>IF(B63="Q4_1",12,IF(B63="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G63">
@@ -4387,7 +4377,7 @@
         <v>3</v>
       </c>
       <c r="H63" s="3">
-        <f>F63*E63/C63</f>
+        <f t="shared" si="5"/>
         <v>150651640.86687306</v>
       </c>
       <c r="I63" s="3">
@@ -4406,15 +4396,15 @@
         <v>7.0144000000000002</v>
       </c>
       <c r="E64">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F64">
-        <f>IF(B64="Q4_1",12,IF(B64="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="H64" s="3">
-        <f>F64*E64/C64</f>
+        <f t="shared" si="5"/>
         <v>161448175.18248174</v>
       </c>
       <c r="I64" s="3"/>
@@ -4434,11 +4424,11 @@
         <v>8.4403000000000006</v>
       </c>
       <c r="E65">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F65">
-        <f>IF(B65="Q4_1",12,IF(B65="Q5_1",11,8))</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G65">
@@ -4446,7 +4436,7 @@
         <v>4</v>
       </c>
       <c r="H65" s="3">
-        <f>F65*E65/C65</f>
+        <f t="shared" si="5"/>
         <v>120466145.66342811</v>
       </c>
       <c r="I65" s="3">
@@ -4469,11 +4459,11 @@
         <v>2.9392999999999994</v>
       </c>
       <c r="E66">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F66">
-        <f>IF(B66="Q4_1",12,IF(B66="Q5_1",11,8))</f>
+        <f t="shared" ref="F66:F97" si="7">IF(B66="Q4_1",12,IF(B66="Q5_1",11,8))</f>
         <v>11</v>
       </c>
       <c r="G66">
@@ -4481,7 +4471,7 @@
         <v>3</v>
       </c>
       <c r="H66" s="3">
-        <f>F66*E66/C66</f>
+        <f t="shared" ref="H66:H97" si="8">F66*E66/C66</f>
         <v>181062251.16279072</v>
       </c>
       <c r="I66" s="3">
@@ -4500,15 +4490,15 @@
         <v>5.6607000000000003</v>
       </c>
       <c r="E67">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F67">
-        <f>IF(B67="Q4_1",12,IF(B67="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="H67" s="3">
-        <f>F67*E67/C67</f>
+        <f t="shared" si="8"/>
         <v>200056897.55683926</v>
       </c>
       <c r="I67" s="3"/>
@@ -4528,11 +4518,11 @@
         <v>7.2007000000000003</v>
       </c>
       <c r="E68">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F68">
-        <f>IF(B68="Q4_1",12,IF(B68="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="G68">
@@ -4540,7 +4530,7 @@
         <v>4</v>
       </c>
       <c r="H68" s="3">
-        <f>F68*E68/C68</f>
+        <f t="shared" si="8"/>
         <v>147686760.56338027</v>
       </c>
       <c r="I68" s="3">
@@ -4563,11 +4553,11 @@
         <v>2.4295</v>
       </c>
       <c r="E69">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F69">
-        <f>IF(B69="Q4_1",12,IF(B69="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="G69">
@@ -4575,7 +4565,7 @@
         <v>3</v>
       </c>
       <c r="H69" s="3">
-        <f>F69*E69/C69</f>
+        <f t="shared" si="8"/>
         <v>231344767.33820644</v>
       </c>
       <c r="I69" s="3">
@@ -4594,15 +4584,15 @@
         <v>4.3013000000000003</v>
       </c>
       <c r="E70">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F70">
-        <f>IF(B70="Q4_1",12,IF(B70="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="H70" s="3">
-        <f>F70*E70/C70</f>
+        <f t="shared" si="8"/>
         <v>263283677.02787527</v>
       </c>
       <c r="I70" s="3"/>
@@ -4622,11 +4612,11 @@
         <v>6.2046999999999999</v>
       </c>
       <c r="E71">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F71">
-        <f>IF(B71="Q4_1",12,IF(B71="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="G71">
@@ -4634,7 +4624,7 @@
         <v>4</v>
       </c>
       <c r="H71" s="3">
-        <f>F71*E71/C71</f>
+        <f t="shared" si="8"/>
         <v>180081747.92481634</v>
       </c>
       <c r="I71" s="3">
@@ -4657,11 +4647,11 @@
         <v>2.0824999999999996</v>
       </c>
       <c r="E72">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F72">
-        <f>IF(B72="Q4_1",12,IF(B72="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="G72">
@@ -4669,7 +4659,7 @@
         <v>3</v>
       </c>
       <c r="H72" s="3">
-        <f>F72*E72/C72</f>
+        <f t="shared" si="8"/>
         <v>293207177.961474</v>
       </c>
       <c r="I72" s="3">
@@ -4688,15 +4678,15 @@
         <v>3.2282000000000002</v>
       </c>
       <c r="E73">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F73">
-        <f>IF(B73="Q4_1",12,IF(B73="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="H73" s="3">
-        <f>F73*E73/C73</f>
+        <f t="shared" si="8"/>
         <v>350802949.01183319</v>
       </c>
       <c r="I73" s="3"/>
@@ -4716,11 +4706,11 @@
         <v>5.9634</v>
       </c>
       <c r="E74">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F74">
-        <f>IF(B74="Q4_1",12,IF(B74="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="G74">
@@ -4728,7 +4718,7 @@
         <v>4</v>
       </c>
       <c r="H74" s="3">
-        <f>F74*E74/C74</f>
+        <f t="shared" si="8"/>
         <v>198119116.87524056</v>
       </c>
       <c r="I74" s="3">
@@ -4751,11 +4741,11 @@
         <v>1.7875999999999999</v>
       </c>
       <c r="E75">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F75">
-        <f>IF(B75="Q4_1",12,IF(B75="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="G75">
@@ -4763,7 +4753,7 @@
         <v>3</v>
       </c>
       <c r="H75" s="3">
-        <f>F75*E75/C75</f>
+        <f t="shared" si="8"/>
         <v>354031184.77593619</v>
       </c>
       <c r="I75" s="3">
@@ -4782,15 +4772,15 @@
         <v>2.6107</v>
       </c>
       <c r="E76">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F76">
-        <f>IF(B76="Q4_1",12,IF(B76="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="H76" s="3">
-        <f>F76*E76/C76</f>
+        <f t="shared" si="8"/>
         <v>433777178.53449267</v>
       </c>
       <c r="I76" s="3"/>
@@ -4810,11 +4800,11 @@
         <v>5.5655000000000001</v>
       </c>
       <c r="E77">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F77">
-        <f>IF(B77="Q4_1",12,IF(B77="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="G77">
@@ -4822,7 +4812,7 @@
         <v>4</v>
       </c>
       <c r="H77" s="3">
-        <f>F77*E77/C77</f>
+        <f t="shared" si="8"/>
         <v>217951618.5734998</v>
       </c>
       <c r="I77" s="3">
@@ -4845,11 +4835,11 @@
         <v>1.6414</v>
       </c>
       <c r="E78">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F78">
-        <f>IF(B78="Q4_1",12,IF(B78="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="G78">
@@ -4857,7 +4847,7 @@
         <v>3</v>
       </c>
       <c r="H78" s="3">
-        <f>F78*E78/C78</f>
+        <f t="shared" si="8"/>
         <v>402381353.04150087</v>
       </c>
       <c r="I78" s="3">
@@ -4876,15 +4866,15 @@
         <v>2.2284000000000002</v>
       </c>
       <c r="E79">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F79">
-        <f>IF(B79="Q4_1",12,IF(B79="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="H79" s="3">
-        <f>F79*E79/C79</f>
+        <f t="shared" si="8"/>
         <v>508195153.47334409</v>
       </c>
       <c r="I79" s="3"/>
@@ -4904,11 +4894,11 @@
         <v>4.2926000000000002</v>
       </c>
       <c r="E80">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F80">
-        <f>IF(B80="Q4_1",12,IF(B80="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="G80">
@@ -4916,7 +4906,7 @@
         <v>4</v>
       </c>
       <c r="H80" s="3">
-        <f>F80*E80/C80</f>
+        <f t="shared" si="8"/>
         <v>269591036.34343755</v>
       </c>
       <c r="I80" s="3">
@@ -4939,11 +4929,11 @@
         <v>1.3048000000000002</v>
       </c>
       <c r="E81">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F81">
-        <f>IF(B81="Q4_1",12,IF(B81="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="G81">
@@ -4951,7 +4941,7 @@
         <v>3</v>
       </c>
       <c r="H81" s="3">
-        <f>F81*E81/C81</f>
+        <f t="shared" si="8"/>
         <v>469979282.86852586</v>
       </c>
       <c r="I81" s="3">
@@ -4970,15 +4960,15 @@
         <v>2.0084</v>
       </c>
       <c r="E82">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F82">
-        <f>IF(B82="Q4_1",12,IF(B82="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="H82" s="3">
-        <f>F82*E82/C82</f>
+        <f t="shared" si="8"/>
         <v>563862816.1720773</v>
       </c>
       <c r="I82" s="3"/>
@@ -4998,11 +4988,11 @@
         <v>4.6753999999999998</v>
       </c>
       <c r="E83">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F83">
-        <f>IF(B83="Q4_1",12,IF(B83="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="G83">
@@ -5010,7 +5000,7 @@
         <v>4</v>
       </c>
       <c r="H83" s="3">
-        <f>F83*E83/C83</f>
+        <f t="shared" si="8"/>
         <v>262439649.6052652</v>
       </c>
       <c r="I83" s="3">
@@ -5033,11 +5023,11 @@
         <v>1.2902</v>
       </c>
       <c r="E84">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F84">
-        <f>IF(B84="Q4_1",12,IF(B84="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="G84">
@@ -5045,7 +5035,7 @@
         <v>3</v>
       </c>
       <c r="H84" s="3">
-        <f>F84*E84/C84</f>
+        <f t="shared" si="8"/>
         <v>504335339.27125508</v>
       </c>
       <c r="I84" s="3">
@@ -5064,15 +5054,15 @@
         <v>1.7972999999999999</v>
       </c>
       <c r="E85">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F85">
-        <f>IF(B85="Q4_1",12,IF(B85="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="H85" s="3">
-        <f>F85*E85/C85</f>
+        <f t="shared" si="8"/>
         <v>630090736.10415626</v>
       </c>
       <c r="I85" s="3"/>
@@ -5092,11 +5082,11 @@
         <v>5.0433000000000003</v>
       </c>
       <c r="E86">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F86">
-        <f>IF(B86="Q4_1",12,IF(B86="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="G86">
@@ -5104,7 +5094,7 @@
         <v>4</v>
       </c>
       <c r="H86" s="3">
-        <f>F86*E86/C86</f>
+        <f t="shared" si="8"/>
         <v>251011188.93518928</v>
       </c>
       <c r="I86" s="3">
@@ -5127,11 +5117,11 @@
         <v>1.2976000000000001</v>
       </c>
       <c r="E87">
-        <f>141557760*1</f>
+        <f t="shared" si="6"/>
         <v>141557760</v>
       </c>
       <c r="F87">
-        <f>IF(B87="Q4_1",12,IF(B87="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="G87">
@@ -5139,7 +5129,7 @@
         <v>3</v>
       </c>
       <c r="H87" s="3">
-        <f>F87*E87/C87</f>
+        <f t="shared" si="8"/>
         <v>515317655.62431741</v>
       </c>
       <c r="I87" s="3">
@@ -5158,15 +5148,15 @@
         <v>1.7241</v>
       </c>
       <c r="E88">
-        <f>141557760*1</f>
+        <f t="shared" ref="E88:E119" si="9">141557760*1</f>
         <v>141557760</v>
       </c>
       <c r="F88">
-        <f>IF(B88="Q4_1",12,IF(B88="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="H88" s="3">
-        <f>F88*E88/C88</f>
+        <f t="shared" si="8"/>
         <v>656842456.93405259</v>
       </c>
       <c r="I88" s="3"/>
@@ -5186,11 +5176,11 @@
         <v>4.1949000000000005</v>
       </c>
       <c r="E89">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F89">
-        <f>IF(B89="Q4_1",12,IF(B89="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="G89">
@@ -5198,7 +5188,7 @@
         <v>4</v>
       </c>
       <c r="H89" s="3">
-        <f>F89*E89/C89</f>
+        <f t="shared" si="8"/>
         <v>290444400.36931914</v>
       </c>
       <c r="I89" s="3">
@@ -5221,11 +5211,11 @@
         <v>1.1290000000000002</v>
       </c>
       <c r="E90">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F90">
-        <f>IF(B90="Q4_1",12,IF(B90="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="G90">
@@ -5233,7 +5223,7 @@
         <v>3</v>
       </c>
       <c r="H90" s="3">
-        <f>F90*E90/C90</f>
+        <f t="shared" si="8"/>
         <v>559577158.87447441</v>
       </c>
       <c r="I90" s="3">
@@ -5252,15 +5242,15 @@
         <v>1.6536999999999999</v>
       </c>
       <c r="E91">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F91">
-        <f>IF(B91="Q4_1",12,IF(B91="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="H91" s="3">
-        <f>F91*E91/C91</f>
+        <f t="shared" si="8"/>
         <v>684805031.14228702</v>
       </c>
       <c r="I91" s="3"/>
@@ -5280,11 +5270,11 @@
         <v>4.0289999999999999</v>
       </c>
       <c r="E92">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F92">
-        <f>IF(B92="Q4_1",12,IF(B92="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="G92">
@@ -5292,7 +5282,7 @@
         <v>4</v>
       </c>
       <c r="H92" s="3">
-        <f>F92*E92/C92</f>
+        <f t="shared" si="8"/>
         <v>302145660.87405062</v>
       </c>
       <c r="I92" s="3">
@@ -5315,11 +5305,11 @@
         <v>1.1525999999999998</v>
       </c>
       <c r="E93">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F93">
-        <f>IF(B93="Q4_1",12,IF(B93="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="G93">
@@ -5327,7 +5317,7 @@
         <v>3</v>
       </c>
       <c r="H93" s="3">
-        <f>F93*E93/C93</f>
+        <f t="shared" si="8"/>
         <v>567117806.02396476</v>
       </c>
       <c r="I93" s="3">
@@ -5346,15 +5336,15 @@
         <v>1.5931</v>
       </c>
       <c r="E94">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F94">
-        <f>IF(B94="Q4_1",12,IF(B94="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="H94" s="3">
-        <f>F94*E94/C94</f>
+        <f t="shared" si="8"/>
         <v>710854359.42502046</v>
       </c>
       <c r="I94" s="3"/>
@@ -5374,11 +5364,11 @@
         <v>3.8908000000000005</v>
       </c>
       <c r="E95">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F95">
-        <f>IF(B95="Q4_1",12,IF(B95="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="G95">
@@ -5386,7 +5376,7 @@
         <v>4</v>
       </c>
       <c r="H95" s="3">
-        <f>F95*E95/C95</f>
+        <f t="shared" si="8"/>
         <v>314130690.13980323</v>
       </c>
       <c r="I95" s="3">
@@ -5409,11 +5399,11 @@
         <v>1.1129000000000002</v>
       </c>
       <c r="E96">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F96">
-        <f>IF(B96="Q4_1",12,IF(B96="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="G96">
@@ -5421,7 +5411,7 @@
         <v>3</v>
       </c>
       <c r="H96" s="3">
-        <f>F96*E96/C96</f>
+        <f t="shared" si="8"/>
         <v>592134220.63353229</v>
       </c>
       <c r="I96" s="3">
@@ -5440,15 +5430,15 @@
         <v>1.5167999999999999</v>
       </c>
       <c r="E97">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F97">
-        <f>IF(B97="Q4_1",12,IF(B97="Q5_1",11,8))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="H97" s="3">
-        <f>F97*E97/C97</f>
+        <f t="shared" si="8"/>
         <v>746612658.22784817</v>
       </c>
       <c r="I97" s="3"/>
@@ -5468,11 +5458,11 @@
         <v>3.9745999999999997</v>
       </c>
       <c r="E98">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F98">
-        <f>IF(B98="Q4_1",12,IF(B98="Q5_1",11,8))</f>
+        <f t="shared" ref="F98:F129" si="10">IF(B98="Q4_1",12,IF(B98="Q5_1",11,8))</f>
         <v>12</v>
       </c>
       <c r="G98">
@@ -5480,7 +5470,7 @@
         <v>4</v>
       </c>
       <c r="H98" s="3">
-        <f>F98*E98/C98</f>
+        <f t="shared" ref="H98:H129" si="11">F98*E98/C98</f>
         <v>310933723.82486457</v>
       </c>
       <c r="I98" s="3">
@@ -5503,11 +5493,11 @@
         <v>1.1629</v>
       </c>
       <c r="E99">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F99">
-        <f>IF(B99="Q4_1",12,IF(B99="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="G99">
@@ -5515,7 +5505,7 @@
         <v>3</v>
       </c>
       <c r="H99" s="3">
-        <f>F99*E99/C99</f>
+        <f t="shared" si="11"/>
         <v>587265834.4333396</v>
       </c>
       <c r="I99" s="3">
@@ -5534,15 +5524,15 @@
         <v>1.4885999999999999</v>
       </c>
       <c r="E100">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F100">
-        <f>IF(B100="Q4_1",12,IF(B100="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="H100" s="3">
-        <f>F100*E100/C100</f>
+        <f t="shared" si="11"/>
         <v>760756469.16565907</v>
       </c>
       <c r="I100" s="3"/>
@@ -5562,11 +5552,11 @@
         <v>3.9803000000000006</v>
       </c>
       <c r="E101">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F101">
-        <f>IF(B101="Q4_1",12,IF(B101="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="G101">
@@ -5574,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="H101" s="3">
-        <f>F101*E101/C101</f>
+        <f t="shared" si="11"/>
         <v>313910100.89810395</v>
       </c>
       <c r="I101" s="3">
@@ -5597,11 +5587,11 @@
         <v>1.1401000000000001</v>
       </c>
       <c r="E102">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F102">
-        <f>IF(B102="Q4_1",12,IF(B102="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="G102">
@@ -5609,7 +5599,7 @@
         <v>3</v>
       </c>
       <c r="H102" s="3">
-        <f>F102*E102/C102</f>
+        <f t="shared" si="11"/>
         <v>605606471.68637204</v>
       </c>
       <c r="I102" s="3">
@@ -5628,15 +5618,15 @@
         <v>1.4311</v>
       </c>
       <c r="E103">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F103">
-        <f>IF(B103="Q4_1",12,IF(B103="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="H103" s="3">
-        <f>F103*E103/C103</f>
+        <f t="shared" si="11"/>
         <v>791322814.61812592</v>
       </c>
       <c r="I103" s="3"/>
@@ -5656,11 +5646,11 @@
         <v>3.4514000000000005</v>
       </c>
       <c r="E104">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F104">
-        <f>IF(B104="Q4_1",12,IF(B104="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="G104">
@@ -5668,7 +5658,7 @@
         <v>4</v>
       </c>
       <c r="H104" s="3">
-        <f>F104*E104/C104</f>
+        <f t="shared" si="11"/>
         <v>352652768.37800241</v>
       </c>
       <c r="I104" s="3">
@@ -5691,11 +5681,11 @@
         <v>1.0413999999999999</v>
       </c>
       <c r="E105">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F105">
-        <f>IF(B105="Q4_1",12,IF(B105="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="G105">
@@ -5703,7 +5693,7 @@
         <v>3</v>
       </c>
       <c r="H105" s="3">
-        <f>F105*E105/C105</f>
+        <f t="shared" si="11"/>
         <v>646946429.01657736</v>
       </c>
       <c r="I105" s="3">
@@ -5722,15 +5712,15 @@
         <v>1.3654999999999999</v>
       </c>
       <c r="E106">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F106">
-        <f>IF(B106="Q4_1",12,IF(B106="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="H106" s="3">
-        <f>F106*E106/C106</f>
+        <f t="shared" si="11"/>
         <v>829338762.35811067</v>
       </c>
       <c r="I106" s="3"/>
@@ -5750,11 +5740,11 @@
         <v>3.4724999999999997</v>
       </c>
       <c r="E107">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F107">
-        <f>IF(B107="Q4_1",12,IF(B107="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="G107">
@@ -5762,7 +5752,7 @@
         <v>4</v>
       </c>
       <c r="H107" s="3">
-        <f>F107*E107/C107</f>
+        <f t="shared" si="11"/>
         <v>352352856.25388926</v>
       </c>
       <c r="I107" s="3">
@@ -5785,11 +5775,11 @@
         <v>1.1057000000000001</v>
       </c>
       <c r="E108">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F108">
-        <f>IF(B108="Q4_1",12,IF(B108="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="G108">
@@ -5797,7 +5787,7 @@
         <v>3</v>
       </c>
       <c r="H108" s="3">
-        <f>F108*E108/C108</f>
+        <f t="shared" si="11"/>
         <v>634477776.87230051</v>
       </c>
       <c r="I108" s="3">
@@ -5816,15 +5806,15 @@
         <v>1.3485</v>
       </c>
       <c r="E109">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F109">
-        <f>IF(B109="Q4_1",12,IF(B109="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="H109" s="3">
-        <f>F109*E109/C109</f>
+        <f t="shared" si="11"/>
         <v>839793904.33815348</v>
       </c>
       <c r="I109" s="3"/>
@@ -5844,11 +5834,11 @@
         <v>3.3711000000000002</v>
       </c>
       <c r="E110">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F110">
-        <f>IF(B110="Q4_1",12,IF(B110="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="G110">
@@ -5856,7 +5846,7 @@
         <v>4</v>
       </c>
       <c r="H110" s="3">
-        <f>F110*E110/C110</f>
+        <f t="shared" si="11"/>
         <v>365302492.41951787</v>
       </c>
       <c r="I110" s="3">
@@ -5879,11 +5869,11 @@
         <v>1.0466000000000002</v>
       </c>
       <c r="E111">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F111">
-        <f>IF(B111="Q4_1",12,IF(B111="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="G111">
@@ -5891,7 +5881,7 @@
         <v>3</v>
       </c>
       <c r="H111" s="3">
-        <f>F111*E111/C111</f>
+        <f t="shared" si="11"/>
         <v>669562848.29721355</v>
       </c>
       <c r="I111" s="3">
@@ -5910,15 +5900,15 @@
         <v>1.2789999999999999</v>
       </c>
       <c r="E112">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F112">
-        <f>IF(B112="Q4_1",12,IF(B112="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="H112" s="3">
-        <f>F112*E112/C112</f>
+        <f t="shared" si="11"/>
         <v>885427740.42220485</v>
       </c>
       <c r="I112" s="3"/>
@@ -5938,11 +5928,11 @@
         <v>2.9016999999999999</v>
       </c>
       <c r="E113">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F113">
-        <f>IF(B113="Q4_1",12,IF(B113="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="G113">
@@ -5950,7 +5940,7 @@
         <v>4</v>
       </c>
       <c r="H113" s="3">
-        <f>F113*E113/C113</f>
+        <f t="shared" si="11"/>
         <v>414801015.823403</v>
       </c>
       <c r="I113" s="3">
@@ -5973,11 +5963,11 @@
         <v>0.89770000000000016</v>
       </c>
       <c r="E114">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F114">
-        <f>IF(B114="Q4_1",12,IF(B114="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="G114">
@@ -5985,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="H114" s="3">
-        <f>F114*E114/C114</f>
+        <f t="shared" si="11"/>
         <v>744613312.93037486</v>
       </c>
       <c r="I114" s="3">
@@ -6004,15 +5994,15 @@
         <v>1.1935</v>
       </c>
       <c r="E115">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F115">
-        <f>IF(B115="Q4_1",12,IF(B115="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="H115" s="3">
-        <f>F115*E115/C115</f>
+        <f t="shared" si="11"/>
         <v>948858047.75869286</v>
       </c>
       <c r="I115" s="3"/>
@@ -6032,11 +6022,11 @@
         <v>2.7154000000000003</v>
       </c>
       <c r="E116">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F116">
-        <f>IF(B116="Q4_1",12,IF(B116="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="G116">
@@ -6044,7 +6034,7 @@
         <v>4</v>
       </c>
       <c r="H116" s="3">
-        <f>F116*E116/C116</f>
+        <f t="shared" si="11"/>
         <v>440612434.82997429</v>
       </c>
       <c r="I116" s="3">
@@ -6067,11 +6057,11 @@
         <v>0.88180000000000014</v>
       </c>
       <c r="E117">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F117">
-        <f>IF(B117="Q4_1",12,IF(B117="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="G117">
@@ -6079,7 +6069,7 @@
         <v>3</v>
       </c>
       <c r="H117" s="3">
-        <f>F117*E117/C117</f>
+        <f t="shared" si="11"/>
         <v>770210891.82371271</v>
       </c>
       <c r="I117" s="3">
@@ -6098,15 +6088,15 @@
         <v>1.1398999999999999</v>
       </c>
       <c r="E118">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F118">
-        <f>IF(B118="Q4_1",12,IF(B118="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="H118" s="3">
-        <f>F118*E118/C118</f>
+        <f t="shared" si="11"/>
         <v>993474936.39792967</v>
       </c>
       <c r="I118" s="3"/>
@@ -6126,11 +6116,11 @@
         <v>3.0837000000000003</v>
       </c>
       <c r="E119">
-        <f>141557760*1</f>
+        <f t="shared" si="9"/>
         <v>141557760</v>
       </c>
       <c r="F119">
-        <f>IF(B119="Q4_1",12,IF(B119="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="G119">
@@ -6138,7 +6128,7 @@
         <v>4</v>
       </c>
       <c r="H119" s="3">
-        <f>F119*E119/C119</f>
+        <f t="shared" si="11"/>
         <v>403030540.00189805</v>
       </c>
       <c r="I119" s="3">
@@ -6161,11 +6151,11 @@
         <v>0.86070000000000002</v>
       </c>
       <c r="E120">
-        <f>141557760*1</f>
+        <f t="shared" ref="E120:E151" si="12">141557760*1</f>
         <v>141557760</v>
       </c>
       <c r="F120">
-        <f>IF(B120="Q4_1",12,IF(B120="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="G120">
@@ -6173,7 +6163,7 @@
         <v>3</v>
       </c>
       <c r="H120" s="3">
-        <f>F120*E120/C120</f>
+        <f t="shared" si="11"/>
         <v>781772949.09127426</v>
       </c>
       <c r="I120" s="3">
@@ -6192,15 +6182,15 @@
         <v>1.1311</v>
       </c>
       <c r="E121">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F121">
-        <f>IF(B121="Q4_1",12,IF(B121="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="H121" s="3">
-        <f>F121*E121/C121</f>
+        <f t="shared" si="11"/>
         <v>1001204208.2928123</v>
       </c>
       <c r="I121" s="3"/>
@@ -6220,11 +6210,11 @@
         <v>3.2534000000000001</v>
       </c>
       <c r="E122">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F122">
-        <f>IF(B122="Q4_1",12,IF(B122="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="G122">
@@ -6232,7 +6222,7 @@
         <v>4</v>
       </c>
       <c r="H122" s="3">
-        <f>F122*E122/C122</f>
+        <f t="shared" si="11"/>
         <v>392181077.71159434</v>
       </c>
       <c r="I122" s="3">
@@ -6255,11 +6245,11 @@
         <v>0.97649999999999992</v>
       </c>
       <c r="E123">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F123">
-        <f>IF(B123="Q4_1",12,IF(B123="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="G123">
@@ -6267,7 +6257,7 @@
         <v>3</v>
       </c>
       <c r="H123" s="3">
-        <f>F123*E123/C123</f>
+        <f t="shared" si="11"/>
         <v>757914509.6130445</v>
       </c>
       <c r="I123" s="3">
@@ -6286,15 +6276,15 @@
         <v>1.0780000000000001</v>
       </c>
       <c r="E124">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F124">
-        <f>IF(B124="Q4_1",12,IF(B124="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="H124" s="3">
-        <f>F124*E124/C124</f>
+        <f t="shared" si="11"/>
         <v>1050521410.0185528</v>
       </c>
       <c r="I124" s="3"/>
@@ -6314,11 +6304,11 @@
         <v>3.3089999999999997</v>
       </c>
       <c r="E125">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F125">
-        <f>IF(B125="Q4_1",12,IF(B125="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="G125">
@@ -6326,7 +6316,7 @@
         <v>4</v>
       </c>
       <c r="H125" s="3">
-        <f>F125*E125/C125</f>
+        <f t="shared" si="11"/>
         <v>389144396.59122151</v>
       </c>
       <c r="I125" s="3">
@@ -6349,11 +6339,11 @@
         <v>0.96550000000000002</v>
       </c>
       <c r="E126">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F126">
-        <f>IF(B126="Q4_1",12,IF(B126="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="G126">
@@ -6361,7 +6351,7 @@
         <v>3</v>
       </c>
       <c r="H126" s="3">
-        <f>F126*E126/C126</f>
+        <f t="shared" si="11"/>
         <v>770210891.82371271</v>
       </c>
       <c r="I126" s="3">
@@ -6380,15 +6370,15 @@
         <v>1.0562</v>
       </c>
       <c r="E127">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F127">
-        <f>IF(B127="Q4_1",12,IF(B127="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="H127" s="3">
-        <f>F127*E127/C127</f>
+        <f t="shared" si="11"/>
         <v>1072204203.7492899</v>
       </c>
       <c r="I127" s="3"/>
@@ -6408,11 +6398,11 @@
         <v>3.8672000000000004</v>
       </c>
       <c r="E128">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F128">
-        <f>IF(B128="Q4_1",12,IF(B128="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="G128">
@@ -6420,7 +6410,7 @@
         <v>4</v>
       </c>
       <c r="H128" s="3">
-        <f>F128*E128/C128</f>
+        <f t="shared" si="11"/>
         <v>348864930.5840795</v>
       </c>
       <c r="I128" s="3">
@@ -6443,11 +6433,11 @@
         <v>1.1605999999999999</v>
       </c>
       <c r="E129">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F129">
-        <f>IF(B129="Q4_1",12,IF(B129="Q5_1",11,8))</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="G129">
@@ -6455,7 +6445,7 @@
         <v>3</v>
       </c>
       <c r="H129" s="3">
-        <f>F129*E129/C129</f>
+        <f t="shared" si="11"/>
         <v>720029298.06714141</v>
       </c>
       <c r="I129" s="3">
@@ -6474,15 +6464,15 @@
         <v>1.002</v>
       </c>
       <c r="E130">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F130">
-        <f>IF(B130="Q4_1",12,IF(B130="Q5_1",11,8))</f>
+        <f t="shared" ref="F130:F161" si="13">IF(B130="Q4_1",12,IF(B130="Q5_1",11,8))</f>
         <v>8</v>
       </c>
       <c r="H130" s="3">
-        <f>F130*E130/C130</f>
+        <f t="shared" ref="H130:H161" si="14">F130*E130/C130</f>
         <v>1130201676.6467066</v>
       </c>
       <c r="I130" s="3"/>
@@ -6502,11 +6492,11 @@
         <v>4.2416499999999999</v>
       </c>
       <c r="E131">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F131">
-        <f>IF(B131="Q4_1",12,IF(B131="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="G131">
@@ -6514,7 +6504,7 @@
         <v>4</v>
       </c>
       <c r="H131" s="3">
-        <f>F131*E131/C131</f>
+        <f t="shared" si="14"/>
         <v>326810019.62368697</v>
       </c>
       <c r="I131" s="3">
@@ -6537,11 +6527,11 @@
         <v>1.13185</v>
       </c>
       <c r="E132">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F132">
-        <f>IF(B132="Q4_1",12,IF(B132="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="G132">
@@ -6549,7 +6539,7 @@
         <v>3</v>
       </c>
       <c r="H132" s="3">
-        <f>F132*E132/C132</f>
+        <f t="shared" si="14"/>
         <v>745754482.75862062</v>
       </c>
       <c r="I132" s="3">
@@ -6568,15 +6558,15 @@
         <v>0.95615000000000006</v>
       </c>
       <c r="E133">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F133">
-        <f>IF(B133="Q4_1",12,IF(B133="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="H133" s="3">
-        <f>F133*E133/C133</f>
+        <f t="shared" si="14"/>
         <v>1184397929.19521</v>
       </c>
       <c r="I133" s="3"/>
@@ -6596,11 +6586,11 @@
         <v>5.1848799999999997</v>
       </c>
       <c r="E134">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F134">
-        <f>IF(B134="Q4_1",12,IF(B134="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="G134">
@@ -6608,7 +6598,7 @@
         <v>4</v>
       </c>
       <c r="H134" s="3">
-        <f>F134*E134/C134</f>
+        <f t="shared" si="14"/>
         <v>276327084.62114066</v>
       </c>
       <c r="I134" s="3">
@@ -6631,11 +6621,11 @@
         <v>1.3801799999999997</v>
       </c>
       <c r="E135">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F135">
-        <f>IF(B135="Q4_1",12,IF(B135="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="G135">
@@ -6643,7 +6633,7 @@
         <v>3</v>
       </c>
       <c r="H135" s="3">
-        <f>F135*E135/C135</f>
+        <f t="shared" si="14"/>
         <v>664675528.23665011</v>
       </c>
       <c r="I135" s="3">
@@ -6662,15 +6652,15 @@
         <v>0.96252000000000004</v>
       </c>
       <c r="E136">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F136">
-        <f>IF(B136="Q4_1",12,IF(B136="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="H136" s="3">
-        <f>F136*E136/C136</f>
+        <f t="shared" si="14"/>
         <v>1176559531.2305198</v>
       </c>
       <c r="I136" s="3"/>
@@ -6690,11 +6680,11 @@
         <v>5.4767399999999995</v>
       </c>
       <c r="E137">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F137">
-        <f>IF(B137="Q4_1",12,IF(B137="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="G137">
@@ -6702,7 +6692,7 @@
         <v>4</v>
       </c>
       <c r="H137" s="3">
-        <f>F137*E137/C137</f>
+        <f t="shared" si="14"/>
         <v>266206942.37670621</v>
       </c>
       <c r="I137" s="3">
@@ -6725,11 +6715,11 @@
         <v>1.3996399999999998</v>
       </c>
       <c r="E138">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F138">
-        <f>IF(B138="Q4_1",12,IF(B138="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="G138">
@@ -6737,7 +6727,7 @@
         <v>3</v>
       </c>
       <c r="H138" s="3">
-        <f>F138*E138/C138</f>
+        <f t="shared" si="14"/>
         <v>675840000</v>
       </c>
       <c r="I138" s="3">
@@ -6756,15 +6746,15 @@
         <v>0.90436000000000005</v>
       </c>
       <c r="E139">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F139">
-        <f>IF(B139="Q4_1",12,IF(B139="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="H139" s="3">
-        <f>F139*E139/C139</f>
+        <f t="shared" si="14"/>
         <v>1252224866.2037241</v>
       </c>
       <c r="I139" s="3"/>
@@ -6784,11 +6774,11 @@
         <v>6.9002599999999994</v>
       </c>
       <c r="E140">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F140">
-        <f>IF(B140="Q4_1",12,IF(B140="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="G140">
@@ -6796,7 +6786,7 @@
         <v>4</v>
       </c>
       <c r="H140" s="3">
-        <f>F140*E140/C140</f>
+        <f t="shared" si="14"/>
         <v>219248447.30116937</v>
       </c>
       <c r="I140" s="3">
@@ -6819,11 +6809,11 @@
         <v>1.7779600000000002</v>
       </c>
       <c r="E141">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F141">
-        <f>IF(B141="Q4_1",12,IF(B141="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="G141">
@@ -6831,7 +6821,7 @@
         <v>3</v>
       </c>
       <c r="H141" s="3">
-        <f>F141*E141/C141</f>
+        <f t="shared" si="14"/>
         <v>593081454.96095979</v>
       </c>
       <c r="I141" s="3">
@@ -6850,15 +6840,15 @@
         <v>0.84753999999999996</v>
       </c>
       <c r="E142">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F142">
-        <f>IF(B142="Q4_1",12,IF(B142="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="H142" s="3">
-        <f>F142*E142/C142</f>
+        <f t="shared" si="14"/>
         <v>1336175378.1532435</v>
       </c>
       <c r="I142" s="3"/>
@@ -6878,11 +6868,11 @@
         <v>6.4219299999999997</v>
       </c>
       <c r="E143">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F143">
-        <f>IF(B143="Q4_1",12,IF(B143="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="G143">
@@ -6890,7 +6880,7 @@
         <v>4</v>
       </c>
       <c r="H143" s="3">
-        <f>F143*E143/C143</f>
+        <f t="shared" si="14"/>
         <v>236863896.48056224</v>
       </c>
       <c r="I143" s="3">
@@ -6913,11 +6903,11 @@
         <v>1.7402299999999999</v>
       </c>
       <c r="E144">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F144">
-        <f>IF(B144="Q4_1",12,IF(B144="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="G144">
@@ -6925,7 +6915,7 @@
         <v>3</v>
       </c>
       <c r="H144" s="3">
-        <f>F144*E144/C144</f>
+        <f t="shared" si="14"/>
         <v>625380681.95509863</v>
       </c>
       <c r="I144" s="3">
@@ -6944,15 +6934,15 @@
         <v>0.74966999999999995</v>
       </c>
       <c r="E145">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F145">
-        <f>IF(B145="Q4_1",12,IF(B145="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="H145" s="3">
-        <f>F145*E145/C145</f>
+        <f t="shared" si="14"/>
         <v>1510614110.2084918</v>
       </c>
       <c r="I145" s="3"/>
@@ -6972,11 +6962,11 @@
         <v>7.14255</v>
       </c>
       <c r="E146">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F146">
-        <f>IF(B146="Q4_1",12,IF(B146="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="G146">
@@ -6984,7 +6974,7 @@
         <v>4</v>
       </c>
       <c r="H146" s="3">
-        <f>F146*E146/C146</f>
+        <f t="shared" si="14"/>
         <v>215764600.08383188</v>
       </c>
       <c r="I146" s="3">
@@ -7007,11 +6997,11 @@
         <v>1.9540500000000001</v>
       </c>
       <c r="E147">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F147">
-        <f>IF(B147="Q4_1",12,IF(B147="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="G147">
@@ -7019,7 +7009,7 @@
         <v>3</v>
       </c>
       <c r="H147" s="3">
-        <f>F147*E147/C147</f>
+        <f t="shared" si="14"/>
         <v>580068305.76665175</v>
       </c>
       <c r="I147" s="3">
@@ -7038,15 +7028,15 @@
         <v>0.73035000000000005</v>
       </c>
       <c r="E148">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F148">
-        <f>IF(B148="Q4_1",12,IF(B148="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="H148" s="3">
-        <f>F148*E148/C148</f>
+        <f t="shared" si="14"/>
         <v>1550574491.68207</v>
       </c>
       <c r="I148" s="3"/>
@@ -7066,11 +7056,11 @@
         <v>10.60369</v>
       </c>
       <c r="E149">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F149">
-        <f>IF(B149="Q4_1",12,IF(B149="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="G149">
@@ -7078,7 +7068,7 @@
         <v>4</v>
       </c>
       <c r="H149" s="3">
-        <f>F149*E149/C149</f>
+        <f t="shared" si="14"/>
         <v>150700241.30589071</v>
       </c>
       <c r="I149" s="3">
@@ -7101,11 +7091,11 @@
         <v>2.7721900000000002</v>
       </c>
       <c r="E150">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F150">
-        <f>IF(B150="Q4_1",12,IF(B150="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="G150">
@@ -7113,7 +7103,7 @@
         <v>3</v>
       </c>
       <c r="H150" s="3">
-        <f>F150*E150/C150</f>
+        <f t="shared" si="14"/>
         <v>452589844.49934602</v>
       </c>
       <c r="I150" s="3">
@@ -7132,15 +7122,15 @@
         <v>0.66830999999999996</v>
       </c>
       <c r="E151">
-        <f>141557760*1</f>
+        <f t="shared" si="12"/>
         <v>141557760</v>
       </c>
       <c r="F151">
-        <f>IF(B151="Q4_1",12,IF(B151="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="H151" s="3">
-        <f>F151*E151/C151</f>
+        <f t="shared" si="14"/>
         <v>1694516137.7205191</v>
       </c>
       <c r="I151" s="3"/>
@@ -7160,11 +7150,11 @@
         <v>11.23593</v>
       </c>
       <c r="E152">
-        <f>141557760*1</f>
+        <f t="shared" ref="E152:E172" si="15">141557760*1</f>
         <v>141557760</v>
       </c>
       <c r="F152">
-        <f>IF(B152="Q4_1",12,IF(B152="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="G152">
@@ -7172,7 +7162,7 @@
         <v>4</v>
       </c>
       <c r="H152" s="3">
-        <f>F152*E152/C152</f>
+        <f t="shared" si="14"/>
         <v>143108097.72535807</v>
       </c>
       <c r="I152" s="3">
@@ -7195,11 +7185,11 @@
         <v>2.95133</v>
       </c>
       <c r="E153">
-        <f>141557760*1</f>
+        <f t="shared" si="15"/>
         <v>141557760</v>
       </c>
       <c r="F153">
-        <f>IF(B153="Q4_1",12,IF(B153="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="G153">
@@ -7207,7 +7197,7 @@
         <v>3</v>
       </c>
       <c r="H153" s="3">
-        <f>F153*E153/C153</f>
+        <f t="shared" si="14"/>
         <v>434298923.41161376</v>
       </c>
       <c r="I153" s="3">
@@ -7226,15 +7216,15 @@
         <v>0.63407000000000002</v>
       </c>
       <c r="E154">
-        <f>141557760*1</f>
+        <f t="shared" si="15"/>
         <v>141557760</v>
       </c>
       <c r="F154">
-        <f>IF(B154="Q4_1",12,IF(B154="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="H154" s="3">
-        <f>F154*E154/C154</f>
+        <f t="shared" si="14"/>
         <v>1786020597.0949578</v>
       </c>
       <c r="I154" s="3"/>
@@ -7254,11 +7244,11 @@
         <v>15.61482</v>
       </c>
       <c r="E155">
-        <f>141557760*1</f>
+        <f t="shared" si="15"/>
         <v>141557760</v>
       </c>
       <c r="F155">
-        <f>IF(B155="Q4_1",12,IF(B155="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="G155">
@@ -7266,7 +7256,7 @@
         <v>4</v>
       </c>
       <c r="H155" s="3">
-        <f>F155*E155/C155</f>
+        <f t="shared" si="14"/>
         <v>104438556.40946817</v>
       </c>
       <c r="I155" s="3">
@@ -7289,11 +7279,11 @@
         <v>4.1020200000000004</v>
       </c>
       <c r="E156">
-        <f>141557760*1</f>
+        <f t="shared" si="15"/>
         <v>141557760</v>
       </c>
       <c r="F156">
-        <f>IF(B156="Q4_1",12,IF(B156="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="G156">
@@ -7301,7 +7291,7 @@
         <v>3</v>
       </c>
       <c r="H156" s="3">
-        <f>F156*E156/C156</f>
+        <f t="shared" si="14"/>
         <v>327666209.33462393</v>
       </c>
       <c r="I156" s="3">
@@ -7320,15 +7310,15 @@
         <v>0.65017999999999998</v>
       </c>
       <c r="E157">
-        <f>141557760*1</f>
+        <f t="shared" si="15"/>
         <v>141557760</v>
       </c>
       <c r="F157">
-        <f>IF(B157="Q4_1",12,IF(B157="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="H157" s="3">
-        <f>F157*E157/C157</f>
+        <f t="shared" si="14"/>
         <v>1741767018.3641453</v>
       </c>
       <c r="I157" s="3"/>
@@ -7348,11 +7338,11 @@
         <v>14.845559999999999</v>
       </c>
       <c r="E158">
-        <f>141557760*1</f>
+        <f t="shared" si="15"/>
         <v>141557760</v>
       </c>
       <c r="F158">
-        <f>IF(B158="Q4_1",12,IF(B158="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="G158">
@@ -7360,7 +7350,7 @@
         <v>4</v>
       </c>
       <c r="H158" s="3">
-        <f>F158*E158/C158</f>
+        <f t="shared" si="14"/>
         <v>110476919.87513007</v>
       </c>
       <c r="I158" s="3">
@@ -7383,11 +7373,11 @@
         <v>3.7056600000000004</v>
       </c>
       <c r="E159">
-        <f>141557760*1</f>
+        <f t="shared" si="15"/>
         <v>141557760</v>
       </c>
       <c r="F159">
-        <f>IF(B159="Q4_1",12,IF(B159="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="G159">
@@ -7395,7 +7385,7 @@
         <v>3</v>
       </c>
       <c r="H159" s="3">
-        <f>F159*E159/C159</f>
+        <f t="shared" si="14"/>
         <v>367587016.35938716</v>
       </c>
       <c r="I159" s="3">
@@ -7414,15 +7404,15 @@
         <v>0.53044000000000002</v>
       </c>
       <c r="E160">
-        <f>141557760*1</f>
+        <f t="shared" si="15"/>
         <v>141557760</v>
       </c>
       <c r="F160">
-        <f>IF(B160="Q4_1",12,IF(B160="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="H160" s="3">
-        <f>F160*E160/C160</f>
+        <f t="shared" si="14"/>
         <v>2134948495.588568</v>
       </c>
       <c r="I160" s="3"/>
@@ -7442,11 +7432,11 @@
         <v>21.055909999999997</v>
       </c>
       <c r="E161">
-        <f>141557760*1</f>
+        <f t="shared" si="15"/>
         <v>141557760</v>
       </c>
       <c r="F161">
-        <f>IF(B161="Q4_1",12,IF(B161="Q5_1",11,8))</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="G161">
@@ -7454,7 +7444,7 @@
         <v>4</v>
       </c>
       <c r="H161" s="3">
-        <f>F161*E161/C161</f>
+        <f t="shared" si="14"/>
         <v>78494206.367543101</v>
       </c>
       <c r="I161" s="3">
@@ -7477,11 +7467,11 @@
         <v>4.8941099999999995</v>
       </c>
       <c r="E162">
-        <f>141557760*1</f>
+        <f t="shared" si="15"/>
         <v>141557760</v>
       </c>
       <c r="F162">
-        <f>IF(B162="Q4_1",12,IF(B162="Q5_1",11,8))</f>
+        <f t="shared" ref="F162:F172" si="16">IF(B162="Q4_1",12,IF(B162="Q5_1",11,8))</f>
         <v>11</v>
       </c>
       <c r="G162">
@@ -7489,7 +7479,7 @@
         <v>3</v>
       </c>
       <c r="H162" s="3">
-        <f>F162*E162/C162</f>
+        <f t="shared" ref="H162:H172" si="17">F162*E162/C162</f>
         <v>284190275.95269382</v>
       </c>
       <c r="I162" s="3">
@@ -7508,15 +7498,15 @@
         <v>0.58509</v>
       </c>
       <c r="E163">
-        <f>141557760*1</f>
+        <f t="shared" si="15"/>
         <v>141557760</v>
       </c>
       <c r="F163">
-        <f>IF(B163="Q4_1",12,IF(B163="Q5_1",11,8))</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="H163" s="3">
-        <f>F163*E163/C163</f>
+        <f t="shared" si="17"/>
         <v>1935534840.7937241</v>
       </c>
       <c r="I163" s="3"/>
@@ -7536,11 +7526,11 @@
         <v>22.071709999999999</v>
       </c>
       <c r="E164">
-        <f>141557760*1</f>
+        <f t="shared" si="15"/>
         <v>141557760</v>
       </c>
       <c r="F164">
-        <f>IF(B164="Q4_1",12,IF(B164="Q5_1",11,8))</f>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="G164">
@@ -7548,7 +7538,7 @@
         <v>4</v>
       </c>
       <c r="H164" s="3">
-        <f>F164*E164/C164</f>
+        <f t="shared" si="17"/>
         <v>75645400.7837549</v>
       </c>
       <c r="I164" s="3">
@@ -7571,11 +7561,11 @@
         <v>5.6760099999999998</v>
       </c>
       <c r="E165">
-        <f>141557760*1</f>
+        <f t="shared" si="15"/>
         <v>141557760</v>
       </c>
       <c r="F165">
-        <f>IF(B165="Q4_1",12,IF(B165="Q5_1",11,8))</f>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="G165">
@@ -7583,7 +7573,7 @@
         <v>3</v>
       </c>
       <c r="H165" s="3">
-        <f>F165*E165/C165</f>
+        <f t="shared" si="17"/>
         <v>256940309.88564923</v>
       </c>
       <c r="I165" s="3">
@@ -7602,15 +7592,15 @@
         <v>0.38429000000000002</v>
       </c>
       <c r="E166">
-        <f>141557760*1</f>
+        <f t="shared" si="15"/>
         <v>141557760</v>
       </c>
       <c r="F166">
-        <f>IF(B166="Q4_1",12,IF(B166="Q5_1",11,8))</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="H166" s="3">
-        <f>F166*E166/C166</f>
+        <f t="shared" si="17"/>
         <v>2946894480.7306981</v>
       </c>
       <c r="I166" s="3"/>
@@ -7630,11 +7620,11 @@
         <v>4.0174700000000003</v>
       </c>
       <c r="E167">
-        <f>141557760*1</f>
+        <f t="shared" si="15"/>
         <v>141557760</v>
       </c>
       <c r="F167">
-        <f>IF(B167="Q4_1",12,IF(B167="Q5_1",11,8))</f>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="G167">
@@ -7642,7 +7632,7 @@
         <v>4</v>
       </c>
       <c r="H167" s="3">
-        <f>F167*E167/C167</f>
+        <f t="shared" si="17"/>
         <v>404412227.40691364</v>
       </c>
       <c r="I167" s="3">
@@ -7665,11 +7655,11 @@
         <v>1.03437</v>
       </c>
       <c r="E168">
-        <f>141557760*1</f>
+        <f t="shared" si="15"/>
         <v>141557760</v>
       </c>
       <c r="F168">
-        <f>IF(B168="Q4_1",12,IF(B168="Q5_1",11,8))</f>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="G168">
@@ -7677,7 +7667,7 @@
         <v>3</v>
       </c>
       <c r="H168" s="3">
-        <f>F168*E168/C168</f>
+        <f t="shared" si="17"/>
         <v>1279171412.1416249</v>
       </c>
       <c r="I168" s="3">
@@ -7696,15 +7686,15 @@
         <v>0.18293000000000001</v>
       </c>
       <c r="E169">
-        <f>141557760*1</f>
+        <f t="shared" si="15"/>
         <v>141557760</v>
       </c>
       <c r="F169">
-        <f>IF(B169="Q4_1",12,IF(B169="Q5_1",11,8))</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="H169" s="3">
-        <f>F169*E169/C169</f>
+        <f t="shared" si="17"/>
         <v>6190685398.7864208</v>
       </c>
       <c r="I169" s="3"/>
@@ -7724,11 +7714,11 @@
         <v>0.78832999999999998</v>
       </c>
       <c r="E170">
-        <f>141557760*1</f>
+        <f t="shared" si="15"/>
         <v>141557760</v>
       </c>
       <c r="F170">
-        <f>IF(B170="Q4_1",12,IF(B170="Q5_1",11,8))</f>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="G170">
@@ -7736,7 +7726,7 @@
         <v>4</v>
       </c>
       <c r="H170" s="3">
-        <f>F170*E170/C170</f>
+        <f t="shared" si="17"/>
         <v>1834996672.860044</v>
       </c>
       <c r="I170" s="3">
@@ -7759,11 +7749,11 @@
         <v>0.17053999999999997</v>
       </c>
       <c r="E171">
-        <f>141557760*1</f>
+        <f t="shared" si="15"/>
         <v>141557760</v>
       </c>
       <c r="F171">
-        <f>IF(B171="Q4_1",12,IF(B171="Q5_1",11,8))</f>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="G171">
@@ -7771,7 +7761,7 @@
         <v>3</v>
       </c>
       <c r="H171" s="3">
-        <f>F171*E171/C171</f>
+        <f t="shared" si="17"/>
         <v>5056783554.7039919</v>
       </c>
       <c r="I171" s="3">
@@ -7790,15 +7780,15 @@
         <v>0.13739000000000001</v>
       </c>
       <c r="E172">
-        <f>141557760*1</f>
+        <f t="shared" si="15"/>
         <v>141557760</v>
       </c>
       <c r="F172">
-        <f>IF(B172="Q4_1",12,IF(B172="Q5_1",11,8))</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="H172" s="3">
-        <f>F172*E172/C172</f>
+        <f t="shared" si="17"/>
         <v>8242682000.1455698</v>
       </c>
       <c r="I172" s="3"/>
@@ -7817,7 +7807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39C9897-D0FE-4C00-81B8-0568CB89E1A3}">
   <dimension ref="A1:M172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -7856,7 +7846,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="3">
-        <v>1000000000</v>
+        <v>70000000</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -12307,7 +12297,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>$M$1</formula>
     </cfRule>
   </conditionalFormatting>
